--- a/Evaluation/eval001/sub0606/Classifcation Report.xlsx
+++ b/Evaluation/eval001/sub0606/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9215686274509803</v>
+        <v>0.9489795918367347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9207920792079208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9261083743842364</v>
+        <v>0.934673366834171</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.93</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9504950495049505</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9253731343283582</v>
+        <v>0.9365853658536586</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9257425742574258</v>
+        <v>0.9356435643564357</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9257425742574258</v>
+        <v>0.9356435643564357</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9257425742574258</v>
+        <v>0.9356435643564357</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9257425742574258</v>
+        <v>0.9356435643564357</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9257843137254902</v>
+        <v>0.9360282574568289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9257425742574258</v>
+        <v>0.9356435643564356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9257407543562973</v>
+        <v>0.9356293663439148</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9257843137254902</v>
+        <v>0.936028257456829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9257425742574258</v>
+        <v>0.9356435643564357</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9257407543562973</v>
+        <v>0.9356293663439148</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
